--- a/results/partialCoop_EUOnly_noStatRateCond.xlsx
+++ b/results/partialCoop_EUOnly_noStatRateCond.xlsx
@@ -497,7 +497,7 @@
         <v>1758162443.862436</v>
       </c>
       <c r="D2" t="n">
-        <v>2841715667.022079</v>
+        <v>2776169796.864468</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -506,13 +506,13 @@
         <v>826583376.3415316</v>
       </c>
       <c r="G2" t="n">
-        <v>3246829666.059107</v>
+        <v>3246719060.927087</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>8673291153.285152</v>
+        <v>8607634677.995523</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +530,22 @@
         <v>1372235190.501511</v>
       </c>
       <c r="D3" t="n">
-        <v>4356133290.021159</v>
+        <v>4241617517.500263</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2604500659.16819</v>
+        <v>2294682533.419445</v>
       </c>
       <c r="G3" t="n">
-        <v>6645054944.853836</v>
+        <v>6644861705.644294</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>14977924084.5447</v>
+        <v>14553396947.06551</v>
       </c>
     </row>
     <row r="4">
@@ -563,7 +563,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>216876570.1233194</v>
+        <v>210431172.3282159</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -572,13 +572,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>291107651.3474146</v>
+        <v>291096775.0851523</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>507984221.470734</v>
+        <v>501527947.4133682</v>
       </c>
     </row>
     <row r="5">
@@ -596,22 +596,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>48318883.94475555</v>
+        <v>46838150.60156667</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>296283909.0755829</v>
+        <v>296178026.8908914</v>
       </c>
       <c r="G5" t="n">
-        <v>71279094.8753323</v>
+        <v>71276596.21742274</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>415881887.8956708</v>
+        <v>414292773.7098808</v>
       </c>
     </row>
     <row r="6">
@@ -626,25 +626,25 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>90537.30873756681</v>
+        <v>90540.19425228065</v>
       </c>
       <c r="D6" t="n">
-        <v>1631016569.628298</v>
+        <v>1579591493.877929</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>82426228.66231745</v>
+        <v>82396736.98180892</v>
       </c>
       <c r="G6" t="n">
-        <v>1932622880.85191</v>
+        <v>1932536103.801292</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>3646156216.451262</v>
+        <v>3594614874.855282</v>
       </c>
     </row>
     <row r="7">
@@ -662,7 +662,7 @@
         <v>6761539149.224922</v>
       </c>
       <c r="D7" t="n">
-        <v>18411066696.57548</v>
+        <v>17975542599.71887</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>10217146574.60507</v>
       </c>
       <c r="G7" t="n">
-        <v>29892611320.16079</v>
+        <v>29891876396.66195</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>65282363740.56626</v>
+        <v>64846104720.21082</v>
       </c>
     </row>
     <row r="8">
@@ -695,7 +695,7 @@
         <v>1319551039.070694</v>
       </c>
       <c r="D8" t="n">
-        <v>1207460753.885997</v>
+        <v>1177713772.017791</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>2162513354.411344</v>
       </c>
       <c r="G8" t="n">
-        <v>1934322852.619915</v>
+        <v>1934272656.187267</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>6623847999.987949</v>
+        <v>6594050821.687096</v>
       </c>
     </row>
     <row r="9">
@@ -728,7 +728,7 @@
         <v>1721705538.142881</v>
       </c>
       <c r="D9" t="n">
-        <v>6409341440.591218</v>
+        <v>6234503502.035975</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -737,13 +737,13 @@
         <v>1875366743.291695</v>
       </c>
       <c r="G9" t="n">
-        <v>9435208016.219948</v>
+        <v>9434912986.598257</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>19441621738.24574</v>
+        <v>19266488770.06881</v>
       </c>
     </row>
     <row r="10">
@@ -758,25 +758,25 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>107300540.2000094</v>
+        <v>107300540.2000116</v>
       </c>
       <c r="D10" t="n">
-        <v>57846201.54306293</v>
+        <v>55925554.52623861</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1131.850228557421</v>
+        <v>1131.445715262</v>
       </c>
       <c r="G10" t="n">
-        <v>71816719.96796815</v>
+        <v>71813478.97938491</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>236964593.561269</v>
+        <v>235040705.1513504</v>
       </c>
     </row>
     <row r="11">
@@ -794,7 +794,7 @@
         <v>1088458061.284382</v>
       </c>
       <c r="D11" t="n">
-        <v>810907201.8119758</v>
+        <v>788605479.1788474</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -803,13 +803,13 @@
         <v>421239804.2309884</v>
       </c>
       <c r="G11" t="n">
-        <v>1188104766.540507</v>
+        <v>1188067133.582547</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>3508709833.867854</v>
+        <v>3486370478.276765</v>
       </c>
     </row>
     <row r="12">
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>12605312612.40199</v>
+        <v>12326817784.4808</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -836,13 +836,13 @@
         <v>5418411701.702073</v>
       </c>
       <c r="G12" t="n">
-        <v>18394287488.3755</v>
+        <v>18393817543.3258</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>36418011802.47956</v>
+        <v>36139047029.50867</v>
       </c>
     </row>
     <row r="13">
@@ -860,7 +860,7 @@
         <v>48462862.92231677</v>
       </c>
       <c r="D13" t="n">
-        <v>451501416.4860507</v>
+        <v>439108024.1919932</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -869,13 +869,13 @@
         <v>103808408.9572117</v>
       </c>
       <c r="G13" t="n">
-        <v>689443786.3403596</v>
+        <v>689422873.1571559</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1293216474.705939</v>
+        <v>1280802169.228678</v>
       </c>
     </row>
     <row r="14">
@@ -893,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>187826561.6767645</v>
+        <v>181611741.4531308</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -902,13 +902,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>184174613.6204743</v>
+        <v>184164126.4454676</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>372001175.2972388</v>
+        <v>365775867.8985983</v>
       </c>
     </row>
     <row r="15">
@@ -923,25 +923,25 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>565082761.8001571</v>
+        <v>565082765.5200381</v>
       </c>
       <c r="D15" t="n">
-        <v>1042697208.147083</v>
+        <v>1013010894.837821</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>87286563.32366437</v>
+        <v>87255324.52835703</v>
       </c>
       <c r="G15" t="n">
-        <v>1573649458.337889</v>
+        <v>1573599364.280173</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>3268715991.608793</v>
+        <v>3238948349.166389</v>
       </c>
     </row>
     <row r="16">
@@ -959,7 +959,7 @@
         <v>3306294849.431211</v>
       </c>
       <c r="D16" t="n">
-        <v>12432939155.8073</v>
+        <v>12242687954.82516</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>12252873710.93849</v>
       </c>
       <c r="G16" t="n">
-        <v>25623099274.69697</v>
+        <v>25622778236.02359</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>53615206990.87398</v>
+        <v>53424634751.21846</v>
       </c>
     </row>
     <row r="17">
@@ -992,7 +992,7 @@
         <v>1359811959.308024</v>
       </c>
       <c r="D17" t="n">
-        <v>7860055972.223832</v>
+        <v>7661664731.793097</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1001,13 +1001,13 @@
         <v>3620058858.934917</v>
       </c>
       <c r="G17" t="n">
-        <v>11062394172.15153</v>
+        <v>11062059397.5992</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>23902320962.6183</v>
+        <v>23703594947.63523</v>
       </c>
     </row>
     <row r="18">
@@ -1025,7 +1025,7 @@
         <v>15599071.58405</v>
       </c>
       <c r="D18" t="n">
-        <v>91884209.89046331</v>
+        <v>89312912.90469228</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1034,13 +1034,13 @@
         <v>1031132.31895</v>
       </c>
       <c r="G18" t="n">
-        <v>110776204.1729288</v>
+        <v>110771865.2475032</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>219290617.9663922</v>
+        <v>216714982.0551955</v>
       </c>
     </row>
     <row r="19">
@@ -1058,7 +1058,7 @@
         <v>2756250488.925418</v>
       </c>
       <c r="D19" t="n">
-        <v>2304537335.084336</v>
+        <v>2257561623.715925</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1067,13 +1067,13 @@
         <v>4476135347.038216</v>
       </c>
       <c r="G19" t="n">
-        <v>3856809495.33183</v>
+        <v>3856730226.3444</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>13393732666.3798</v>
+        <v>13346677686.02396</v>
       </c>
     </row>
     <row r="20">
@@ -1088,25 +1088,25 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>164313933.3017717</v>
+        <v>164313933.3020834</v>
       </c>
       <c r="D20" t="n">
-        <v>62128663.0089566</v>
+        <v>60706152.34746993</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>85959.13050162437</v>
+        <v>85928.40771124304</v>
       </c>
       <c r="G20" t="n">
-        <v>74823343.64301625</v>
+        <v>74820943.23275189</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>301351899.0842462</v>
+        <v>299926957.2900165</v>
       </c>
     </row>
     <row r="21">
@@ -1124,22 +1124,22 @@
         <v>95553988.63727365</v>
       </c>
       <c r="D21" t="n">
-        <v>168335373.8955317</v>
+        <v>164122711.4117566</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>51124053.14187074</v>
+        <v>51105783.07633179</v>
       </c>
       <c r="G21" t="n">
-        <v>260704878.4840372</v>
+        <v>260697769.8425766</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>575718294.1587132</v>
+        <v>571480252.9679387</v>
       </c>
     </row>
     <row r="22">
@@ -1154,10 +1154,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2502804674.249134</v>
+        <v>1290552412.996203</v>
       </c>
       <c r="D22" t="n">
-        <v>9977172510.315479</v>
+        <v>9771821985.299801</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1166,13 +1166,13 @@
         <v>3218237842.638599</v>
       </c>
       <c r="G22" t="n">
-        <v>17706440320.08012</v>
+        <v>17706093802.10919</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>33404655347.28333</v>
+        <v>31986706043.04379</v>
       </c>
     </row>
     <row r="23">
@@ -1187,25 +1187,25 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4031323080.766756</v>
+        <v>4031323091.636458</v>
       </c>
       <c r="D23" t="n">
-        <v>3229188394.46045</v>
+        <v>3141701217.666637</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>83707053.97851485</v>
+        <v>83677007.06257923</v>
       </c>
       <c r="G23" t="n">
-        <v>4230583349.349267</v>
+        <v>4230435719.441906</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>11574801878.55499</v>
+        <v>11487137035.80758</v>
       </c>
     </row>
     <row r="24">
@@ -1220,25 +1220,25 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>222906.0974928759</v>
+        <v>222913.2017334712</v>
       </c>
       <c r="D24" t="n">
-        <v>3922030917.099982</v>
+        <v>3881600920.754917</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>75683311.21377133</v>
+        <v>75656177.70855384</v>
       </c>
       <c r="G24" t="n">
-        <v>2794381734.502191</v>
+        <v>2794313511.056952</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>6792318868.913437</v>
+        <v>6751793522.722157</v>
       </c>
     </row>
     <row r="25">
@@ -1256,7 +1256,7 @@
         <v>71772729.48120731</v>
       </c>
       <c r="D25" t="n">
-        <v>1018078166.228578</v>
+        <v>988970426.5012425</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1265,13 +1265,13 @@
         <v>1648004688.212083</v>
       </c>
       <c r="G25" t="n">
-        <v>1159258906.919594</v>
+        <v>1159209789.173692</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>3897114490.841462</v>
+        <v>3867957633.368224</v>
       </c>
     </row>
     <row r="26">
@@ -1286,25 +1286,25 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>31.8871637419285</v>
+        <v>31.88818001777592</v>
       </c>
       <c r="D26" t="n">
-        <v>657100480.5762606</v>
+        <v>637924020.9677939</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>15714114.41766413</v>
+        <v>15708498.69439514</v>
       </c>
       <c r="G26" t="n">
-        <v>844439070.1158718</v>
+        <v>844406710.8712457</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1517253696.99696</v>
+        <v>1498039262.421615</v>
       </c>
     </row>
     <row r="27">
@@ -1322,7 +1322,7 @@
         <v>14234914.35090468</v>
       </c>
       <c r="D27" t="n">
-        <v>125724495.9356362</v>
+        <v>121924782.4168632</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1331,13 +1331,13 @@
         <v>740048.7312050576</v>
       </c>
       <c r="G27" t="n">
-        <v>149789922.8095858</v>
+        <v>149783510.9973028</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>290489381.8273318</v>
+        <v>286683256.4962757</v>
       </c>
     </row>
     <row r="28">
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>2672266490.979695</v>
+        <v>2602720171.109299</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -1364,13 +1364,13 @@
         <v>2731420631.153298</v>
       </c>
       <c r="G28" t="n">
-        <v>4317734191.806141</v>
+        <v>4317616836.130303</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>9721421313.939135</v>
+        <v>9651757638.392902</v>
       </c>
     </row>
   </sheetData>
@@ -1454,7 +1454,7 @@
         <v>871751267.89247</v>
       </c>
       <c r="D2" t="n">
-        <v>1786527704.195369</v>
+        <v>1715223343.872172</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -1463,13 +1463,13 @@
         <v>432699893.0129533</v>
       </c>
       <c r="G2" t="n">
-        <v>2777696363.950988</v>
+        <v>2777603439.093056</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5868675229.051781</v>
+        <v>5797277943.870651</v>
       </c>
     </row>
     <row r="3">
@@ -1487,22 +1487,22 @@
         <v>771180929.3941004</v>
       </c>
       <c r="D3" t="n">
-        <v>2664840501.14044</v>
+        <v>2540264019.252492</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2198006800.387751</v>
+        <v>2017282341.288148</v>
       </c>
       <c r="G3" t="n">
-        <v>5791515684.587485</v>
+        <v>5791353334.741997</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>11425543915.50978</v>
+        <v>11120080624.67674</v>
       </c>
     </row>
     <row r="4">
@@ -1520,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>129647479.8813273</v>
+        <v>122635825.8182523</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>251330814.805676</v>
+        <v>251321677.1182368</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>380978294.6870033</v>
+        <v>373957502.936489</v>
       </c>
     </row>
     <row r="5">
@@ -1553,22 +1553,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>29004191.30291041</v>
+        <v>27393369.0864774</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>229757262.4026999</v>
+        <v>229668305.5270976</v>
       </c>
       <c r="G5" t="n">
-        <v>55413233.49410526</v>
+        <v>55411134.24765053</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>314174687.1997156</v>
+        <v>312472808.8612255</v>
       </c>
     </row>
     <row r="6">
@@ -1583,25 +1583,25 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>70435.77251545069</v>
+        <v>70439.38449902159</v>
       </c>
       <c r="D6" t="n">
-        <v>973438366.8763082</v>
+        <v>917495374.2493922</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>63918277.99525587</v>
+        <v>63893499.38381829</v>
       </c>
       <c r="G6" t="n">
-        <v>1644891150.533745</v>
+        <v>1644818244.82898</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2682318231.177824</v>
+        <v>2626277557.846689</v>
       </c>
     </row>
     <row r="7">
@@ -1619,7 +1619,7 @@
         <v>2835069363.81169</v>
       </c>
       <c r="D7" t="n">
-        <v>11364479770.70651</v>
+        <v>10890692985.10087</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1628,13 +1628,13 @@
         <v>7260715462.353046</v>
       </c>
       <c r="G7" t="n">
-        <v>25989750584.37125</v>
+        <v>25989133138.6843</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>47450015181.2425</v>
+        <v>46975610949.94991</v>
       </c>
     </row>
     <row r="8">
@@ -1652,7 +1652,7 @@
         <v>991805413.0775133</v>
       </c>
       <c r="D8" t="n">
-        <v>750376818.4092298</v>
+        <v>718016434.6267296</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1661,13 +1661,13 @@
         <v>1130824590.998353</v>
       </c>
       <c r="G8" t="n">
-        <v>1641222267.565723</v>
+        <v>1641180095.052682</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>4514229090.050819</v>
+        <v>4481826533.755278</v>
       </c>
     </row>
     <row r="9">
@@ -1685,7 +1685,7 @@
         <v>134792808.3516003</v>
       </c>
       <c r="D9" t="n">
-        <v>3935834621.179158</v>
+        <v>3745636408.249329</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1694,13 +1694,13 @@
         <v>1300988740.775733</v>
       </c>
       <c r="G9" t="n">
-        <v>8165814285.095675</v>
+        <v>8165566416.075668</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>13537430455.40216</v>
+        <v>13346984373.45233</v>
       </c>
     </row>
     <row r="10">
@@ -1715,25 +1715,25 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>58335953.25007542</v>
+        <v>57608532.1761839</v>
       </c>
       <c r="D10" t="n">
-        <v>34080632.07229733</v>
+        <v>31991247.8500419</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>877.7365391027062</v>
+        <v>877.3966879701775</v>
       </c>
       <c r="G10" t="n">
-        <v>61174785.35466707</v>
+        <v>61172062.43939038</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>153592248.4135789</v>
+        <v>150772719.8623042</v>
       </c>
     </row>
     <row r="11">
@@ -1751,7 +1751,7 @@
         <v>857650250.0368606</v>
       </c>
       <c r="D11" t="n">
-        <v>490067859.3513417</v>
+        <v>465806833.2540939</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1760,13 +1760,13 @@
         <v>316562231.4796273</v>
       </c>
       <c r="G11" t="n">
-        <v>1004967183.306696</v>
+        <v>1004935565.991946</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>2669247524.174526</v>
+        <v>2644954880.762528</v>
       </c>
     </row>
     <row r="12">
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>7885243253.626516</v>
+        <v>7582281442.1426</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1793,13 +1793,13 @@
         <v>4699468589.309033</v>
       </c>
       <c r="G12" t="n">
-        <v>16001478580.04841</v>
+        <v>16001083755.90073</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>28586190422.98396</v>
+        <v>28282833787.35236</v>
       </c>
     </row>
     <row r="13">
@@ -1817,7 +1817,7 @@
         <v>16927148.92870053</v>
       </c>
       <c r="D13" t="n">
-        <v>272571041.5409321</v>
+        <v>259088835.7568411</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1826,13 +1826,13 @@
         <v>76860602.84036654</v>
       </c>
       <c r="G13" t="n">
-        <v>595596327.2296199</v>
+        <v>595578757.0270205</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>961955120.539619</v>
+        <v>948455344.5529287</v>
       </c>
     </row>
     <row r="14">
@@ -1850,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>110852158.6494859</v>
+        <v>104091339.4017697</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1859,13 +1859,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>154110780.6291552</v>
+        <v>154101969.8332199</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>264962939.278641</v>
+        <v>258193309.2349897</v>
       </c>
     </row>
     <row r="15">
@@ -1880,25 +1880,25 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>307219362.3385053</v>
+        <v>303389299.1420747</v>
       </c>
       <c r="D15" t="n">
-        <v>633959551.9149164</v>
+        <v>601665166.6884935</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>67713060.91282356</v>
+        <v>67686815.445133</v>
       </c>
       <c r="G15" t="n">
-        <v>1305891271.90445</v>
+        <v>1305849185.401667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>2314783247.070695</v>
+        <v>2278590466.677369</v>
       </c>
     </row>
     <row r="16">
@@ -1916,7 +1916,7 @@
         <v>2697192434.663378</v>
       </c>
       <c r="D16" t="n">
-        <v>7922297740.65943</v>
+        <v>7715332143.069046</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1925,13 +1925,13 @@
         <v>11182857328.75006</v>
       </c>
       <c r="G16" t="n">
-        <v>23392463097.84823</v>
+        <v>23392193377.33372</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>45194810601.92109</v>
+        <v>44987575283.8162</v>
       </c>
     </row>
     <row r="17">
@@ -1949,7 +1949,7 @@
         <v>912249696.7945271</v>
       </c>
       <c r="D17" t="n">
-        <v>4880581948.343956</v>
+        <v>4664761173.387065</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1958,13 +1958,13 @@
         <v>3080467310.690993</v>
       </c>
       <c r="G17" t="n">
-        <v>9523414189.111116</v>
+        <v>9523132928.403345</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>18396713144.94059</v>
+        <v>18180611109.27593</v>
       </c>
     </row>
     <row r="18">
@@ -1982,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>56330280.81001387</v>
+        <v>53533084.18526082</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1991,13 +1991,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>95018600.78959845</v>
+        <v>95014955.44311774</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>151348881.5996123</v>
+        <v>148548039.6283786</v>
       </c>
     </row>
     <row r="19">
@@ -2015,7 +2015,7 @@
         <v>2473987704.214796</v>
       </c>
       <c r="D19" t="n">
-        <v>1467476534.385169</v>
+        <v>1416373802.179503</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2024,13 +2024,13 @@
         <v>3367960752.58817</v>
       </c>
       <c r="G19" t="n">
-        <v>3420738025.765869</v>
+        <v>3420671427.957423</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>10730163016.954</v>
+        <v>10678993686.93989</v>
       </c>
     </row>
     <row r="20">
@@ -2045,25 +2045,25 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>89332354.67119992</v>
+        <v>88218423.55277395</v>
       </c>
       <c r="D20" t="n">
-        <v>40063956.342894</v>
+        <v>38516471.92432826</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>66660.59303476363</v>
+        <v>66634.78129328687</v>
       </c>
       <c r="G20" t="n">
-        <v>62394708.19187593</v>
+        <v>62392691.48814146</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>191857679.7990046</v>
+        <v>189194221.746537</v>
       </c>
     </row>
     <row r="21">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>51949719.96212066</v>
+        <v>51301932.12298515</v>
       </c>
       <c r="D21" t="n">
-        <v>102949454.2669181</v>
+        <v>98366691.03651442</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>39644820.83908883</v>
+        <v>39629471.25075036</v>
       </c>
       <c r="G21" t="n">
-        <v>233413206.1435719</v>
+        <v>233407233.8212596</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>427957201.2116995</v>
+        <v>422705328.2315095</v>
       </c>
     </row>
     <row r="22">
@@ -2111,10 +2111,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2024644095.294044</v>
+        <v>812391834.0411135</v>
       </c>
       <c r="D22" t="n">
-        <v>6334269192.208911</v>
+        <v>6110877729.206482</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2123,13 +2123,13 @@
         <v>1824895563.077239</v>
       </c>
       <c r="G22" t="n">
-        <v>15417511232.37175</v>
+        <v>15417220105.43549</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>25601320082.95194</v>
+        <v>24165385231.76033</v>
       </c>
     </row>
     <row r="23">
@@ -2144,25 +2144,25 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2191787329.470241</v>
+        <v>2164460162.284015</v>
       </c>
       <c r="D23" t="n">
-        <v>1976418848.52134</v>
+        <v>1881245542.212872</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>64907944.52180131</v>
+        <v>64882695.99251785</v>
       </c>
       <c r="G23" t="n">
-        <v>3655278600.679286</v>
+        <v>3655154569.47099</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>7888392723.192669</v>
+        <v>7765742969.960396</v>
       </c>
     </row>
     <row r="24">
@@ -2177,25 +2177,25 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>153668.36797171</v>
+        <v>153676.2481666827</v>
       </c>
       <c r="D24" t="n">
-        <v>2590689090.023454</v>
+        <v>2546707142.414519</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>58708808.31256747</v>
+        <v>58686010.19731768</v>
       </c>
       <c r="G24" t="n">
-        <v>2394232841.183335</v>
+        <v>2394175523.282794</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>5043784407.887328</v>
+        <v>4999722352.142797</v>
       </c>
     </row>
     <row r="25">
@@ -2213,7 +2213,7 @@
         <v>52849684.23546708</v>
       </c>
       <c r="D25" t="n">
-        <v>619348550.1014075</v>
+        <v>587683568.6659484</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2222,13 +2222,13 @@
         <v>1443866969.734998</v>
       </c>
       <c r="G25" t="n">
-        <v>990581397.6149338</v>
+        <v>990540131.3601357</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>3106646601.686806</v>
+        <v>3074940353.996549</v>
       </c>
     </row>
     <row r="26">
@@ -2243,25 +2243,25 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>14.60145735862537</v>
+        <v>14.60220612906129</v>
       </c>
       <c r="D26" t="n">
-        <v>396136945.6504968</v>
+        <v>375275750.5461004</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>12185727.26774324</v>
+        <v>12181009.22016434</v>
       </c>
       <c r="G26" t="n">
-        <v>737506001.5550878</v>
+        <v>737478814.9485103</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1145828689.074785</v>
+        <v>1124935589.316981</v>
       </c>
     </row>
     <row r="27">
@@ -2279,7 +2279,7 @@
         <v>8015337.35609397</v>
       </c>
       <c r="D27" t="n">
-        <v>74935252.26238881</v>
+        <v>70801717.36208121</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2288,13 +2288,13 @@
         <v>105634.5662736499</v>
       </c>
       <c r="G27" t="n">
-        <v>130454854.795923</v>
+        <v>130449467.9143686</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>213511078.9806794</v>
+        <v>209372157.1988175</v>
       </c>
     </row>
     <row r="28">
@@ -2312,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1660862711.337751</v>
+        <v>1585206444.371322</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2321,13 +2321,13 @@
         <v>2078009637.451496</v>
       </c>
       <c r="G28" t="n">
-        <v>3527525073.253058</v>
+        <v>3527426476.928406</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>7266397422.042305</v>
+        <v>7190642558.751225</v>
       </c>
     </row>
   </sheetData>
@@ -2411,7 +2411,7 @@
         <v>1221433265.567402</v>
       </c>
       <c r="D2" t="n">
-        <v>2192895089.091296</v>
+        <v>2123780103.923856</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -2420,13 +2420,13 @@
         <v>586339425.5870962</v>
       </c>
       <c r="G2" t="n">
-        <v>2951989065.187612</v>
+        <v>2951887823.863538</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6952656845.433407</v>
+        <v>6883440618.941892</v>
       </c>
     </row>
     <row r="3">
@@ -2444,22 +2444,22 @@
         <v>1004869116.959594</v>
       </c>
       <c r="D3" t="n">
-        <v>3321909614.964118</v>
+        <v>3201158209.876535</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2356228598.723887</v>
+        <v>2126499838.636096</v>
       </c>
       <c r="G3" t="n">
-        <v>6113977024.907747</v>
+        <v>6113800145.29032</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>12796984355.55535</v>
+        <v>12446327310.76254</v>
       </c>
     </row>
     <row r="4">
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>163462454.9440115</v>
+        <v>156666091.2381723</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -2486,13 +2486,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>266289663.3678424</v>
+        <v>266279707.8877276</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>429752118.3118539</v>
+        <v>422945799.1258999</v>
       </c>
     </row>
     <row r="5">
@@ -2510,22 +2510,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>36441393.92969308</v>
+        <v>34880031.43949581</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>255823890.5113559</v>
+        <v>255726972.2908508</v>
       </c>
       <c r="G5" t="n">
-        <v>61223905.64759162</v>
+        <v>61221618.52555167</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>353489190.0886407</v>
+        <v>351828622.2558983</v>
       </c>
     </row>
     <row r="6">
@@ -2540,25 +2540,25 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>79192.33601442508</v>
+        <v>79195.45192008157</v>
       </c>
       <c r="D6" t="n">
-        <v>1227862692.04619</v>
+        <v>1173637409.214873</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>71169226.68543568</v>
+        <v>71142231.28991313</v>
       </c>
       <c r="G6" t="n">
-        <v>1753650320.562831</v>
+        <v>1753570890.03964</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>3052761431.630471</v>
+        <v>2998429725.996346</v>
       </c>
     </row>
     <row r="7">
@@ -2576,7 +2576,7 @@
         <v>4425459111.226663</v>
       </c>
       <c r="D7" t="n">
-        <v>14104395910.53193</v>
+        <v>13645156580.54933</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -2585,13 +2585,13 @@
         <v>8422274974.073162</v>
       </c>
       <c r="G7" t="n">
-        <v>27454308292.26009</v>
+        <v>27453635587.23496</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>54406438288.09186</v>
+        <v>53946526253.08411</v>
       </c>
     </row>
     <row r="8">
@@ -2609,7 +2609,7 @@
         <v>1118005625.402117</v>
       </c>
       <c r="D8" t="n">
-        <v>927667730.0424691</v>
+        <v>896300960.3946872</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -2618,13 +2618,13 @@
         <v>1540941334.98001</v>
       </c>
       <c r="G8" t="n">
-        <v>1746268830.155972</v>
+        <v>1746222883.343086</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>5332883520.580568</v>
+        <v>5301470804.119901</v>
       </c>
     </row>
     <row r="9">
@@ -2642,7 +2642,7 @@
         <v>746626619.4004967</v>
       </c>
       <c r="D9" t="n">
-        <v>4895474703.567916</v>
+        <v>4711116459.472678</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -2651,13 +2651,13 @@
         <v>1527739071.169963</v>
       </c>
       <c r="G9" t="n">
-        <v>8645333225.711805</v>
+        <v>8645063173.237785</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>15815173619.85018</v>
+        <v>15630545323.28092</v>
       </c>
     </row>
     <row r="10">
@@ -2672,25 +2672,25 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>76952265.35560679</v>
+        <v>76501409.41965269</v>
       </c>
       <c r="D10" t="n">
-        <v>43261536.48764768</v>
+        <v>41236306.06869826</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>977.3046289771761</v>
+        <v>976.9343620664716</v>
       </c>
       <c r="G10" t="n">
-        <v>65100103.7357047</v>
+        <v>65097137.1285547</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>185314882.8835882</v>
+        <v>182835829.5512677</v>
       </c>
     </row>
     <row r="11">
@@ -2708,7 +2708,7 @@
         <v>949961004.0002382</v>
       </c>
       <c r="D11" t="n">
-        <v>614581432.3632783</v>
+        <v>591065332.4886308</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -2717,13 +2717,13 @@
         <v>358770558.0567805</v>
       </c>
       <c r="G11" t="n">
-        <v>1072363950.230919</v>
+        <v>1072329503.271513</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>2995676944.651216</v>
+        <v>2972126397.817163</v>
       </c>
     </row>
     <row r="12">
@@ -2741,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>9715979188.862337</v>
+        <v>9422319712.610088</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -2750,13 +2750,13 @@
         <v>4973282138.740775</v>
       </c>
       <c r="G12" t="n">
-        <v>16896479641.82244</v>
+        <v>16896049482.22491</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>31585740969.42555</v>
+        <v>31291651333.57578</v>
       </c>
     </row>
     <row r="13">
@@ -2774,7 +2774,7 @@
         <v>29015740.08553806</v>
       </c>
       <c r="D13" t="n">
-        <v>341995059.7398728</v>
+        <v>328926820.3142862</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -2783,13 +2783,13 @@
         <v>87663110.93857871</v>
       </c>
       <c r="G13" t="n">
-        <v>630871120.5789537</v>
+        <v>630851977.9015797</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1089545031.342943</v>
+        <v>1076457649.239983</v>
       </c>
     </row>
     <row r="14">
@@ -2807,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>140550368.9128367</v>
+        <v>133997138.2280979</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -2816,13 +2816,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>165407702.273397</v>
+        <v>165398102.9404899</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>305958071.1862336</v>
+        <v>299395241.1685878</v>
       </c>
     </row>
     <row r="15">
@@ -2837,25 +2837,25 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>405259291.7082416</v>
+        <v>402885417.9541403</v>
       </c>
       <c r="D15" t="n">
-        <v>792518323.168052</v>
+        <v>761215525.6140336</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>75382607.93759878</v>
+        <v>75354013.87164921</v>
       </c>
       <c r="G15" t="n">
-        <v>1405262233.738627</v>
+        <v>1405216380.633632</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>2678422456.552519</v>
+        <v>2644671338.073455</v>
       </c>
     </row>
     <row r="16">
@@ -2873,7 +2873,7 @@
         <v>2933516177.783658</v>
       </c>
       <c r="D16" t="n">
-        <v>9699376154.361629</v>
+        <v>9498765362.219425</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -2882,13 +2882,13 @@
         <v>11632238683.1477</v>
       </c>
       <c r="G16" t="n">
-        <v>24245053708.86497</v>
+        <v>24244759849.26027</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>48510184724.15796</v>
+        <v>48309280072.41106</v>
       </c>
     </row>
     <row r="17">
@@ -2906,7 +2906,7 @@
         <v>1087728491.901122</v>
       </c>
       <c r="D17" t="n">
-        <v>6036117415.051406</v>
+        <v>5826923340.630711</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -2915,13 +2915,13 @@
         <v>3293254072.602161</v>
       </c>
       <c r="G17" t="n">
-        <v>10101842660.50009</v>
+        <v>10101536227.89316</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>20518942640.05478</v>
+        <v>20309442133.02715</v>
       </c>
     </row>
     <row r="18">
@@ -2939,7 +2939,7 @@
         <v>4584617.094695453</v>
       </c>
       <c r="D18" t="n">
-        <v>70065394.04549952</v>
+        <v>67354084.35344234</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -2948,13 +2948,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>100823035.3417459</v>
+        <v>100819063.7488629</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>175473046.4819409</v>
+        <v>172757765.1970007</v>
       </c>
     </row>
     <row r="19">
@@ -2972,7 +2972,7 @@
         <v>2582969545.753955</v>
       </c>
       <c r="D19" t="n">
-        <v>1794155961.168182</v>
+        <v>1744622320.274397</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2981,13 +2981,13 @@
         <v>3812108331.641644</v>
       </c>
       <c r="G19" t="n">
-        <v>3585460424.796762</v>
+        <v>3585387866.705659</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>11774694263.36054</v>
+        <v>11725088064.37565</v>
       </c>
     </row>
     <row r="20">
@@ -3002,25 +3002,25 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>117840314.0729189</v>
+        <v>117149899.0231743</v>
       </c>
       <c r="D20" t="n">
-        <v>48543040.22707974</v>
+        <v>47043070.77007557</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>74222.51266132492</v>
+        <v>74194.39088048485</v>
       </c>
       <c r="G20" t="n">
-        <v>66823152.33274846</v>
+        <v>66820955.14072809</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>233280729.1454084</v>
+        <v>231088119.3248584</v>
       </c>
     </row>
     <row r="21">
@@ -3035,25 +3035,25 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>68528041.6709657</v>
+        <v>68126542.45270517</v>
       </c>
       <c r="D21" t="n">
-        <v>128460576.2872889</v>
+        <v>124018525.180462</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>44142640.8010779</v>
+        <v>44125917.47556563</v>
       </c>
       <c r="G21" t="n">
-        <v>243819864.6568475</v>
+        <v>243813357.8315249</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>484951123.41618</v>
+        <v>480084342.9402577</v>
       </c>
     </row>
     <row r="22">
@@ -3068,10 +3068,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2214097325.319032</v>
+        <v>1001845064.066102</v>
       </c>
       <c r="D22" t="n">
-        <v>7753562993.267817</v>
+        <v>7537030686.099463</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -3080,13 +3080,13 @@
         <v>2378673863.6001</v>
       </c>
       <c r="G22" t="n">
-        <v>16247676434.38505</v>
+        <v>16247359252.55495</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>28594010616.572</v>
+        <v>27164908866.32062</v>
       </c>
     </row>
     <row r="23">
@@ -3101,25 +3101,25 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2891180324.77426</v>
+        <v>2874242936.451978</v>
       </c>
       <c r="D23" t="n">
-        <v>2461323792.208825</v>
+        <v>2369072748.597596</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>72272303.26627634</v>
+        <v>72244798.32711643</v>
       </c>
       <c r="G23" t="n">
-        <v>3871524960.905532</v>
+        <v>3871389829.316054</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>9296301381.154892</v>
+        <v>9186950312.692743</v>
       </c>
     </row>
     <row r="24">
@@ -3134,25 +3134,25 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>181386.7968841937</v>
+        <v>181393.9337382741</v>
       </c>
       <c r="D24" t="n">
-        <v>3097167275.95625</v>
+        <v>3054535778.487535</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>65359208.66493109</v>
+        <v>65334371.64268081</v>
       </c>
       <c r="G24" t="n">
-        <v>2533507966.118459</v>
+        <v>2533445518.456197</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>5696215837.536524</v>
+        <v>5653497062.520151</v>
       </c>
     </row>
     <row r="25">
@@ -3170,7 +3170,7 @@
         <v>60551696.24306175</v>
       </c>
       <c r="D25" t="n">
-        <v>773451478.0135235</v>
+        <v>742758758.6297545</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -3179,13 +3179,13 @@
         <v>1523510916.248781</v>
       </c>
       <c r="G25" t="n">
-        <v>1054097300.136206</v>
+        <v>1054052340.688666</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>3411611390.641572</v>
+        <v>3380873711.810263</v>
       </c>
     </row>
     <row r="26">
@@ -3200,25 +3200,25 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>21.13530734140502</v>
+        <v>21.1361389322762</v>
       </c>
       <c r="D26" t="n">
-        <v>497390390.9157122</v>
+        <v>477169731.4261638</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>13568228.50844968</v>
+        <v>13563088.21126729</v>
       </c>
       <c r="G26" t="n">
-        <v>778096349.3034643</v>
+        <v>778066729.5858964</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1289054989.862933</v>
+        <v>1268799570.359466</v>
       </c>
     </row>
     <row r="27">
@@ -3236,7 +3236,7 @@
         <v>10485495.16764931</v>
       </c>
       <c r="D27" t="n">
-        <v>94605035.72883716</v>
+        <v>90598419.55517079</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -3245,13 +3245,13 @@
         <v>346712.0264263992</v>
       </c>
       <c r="G27" t="n">
-        <v>137848177.1008613</v>
+        <v>137842308.1113</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>243285420.0237742</v>
+        <v>239272934.8605465</v>
       </c>
     </row>
     <row r="28">
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>2052224722.684336</v>
+        <v>1978891454.627411</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -3278,13 +3278,13 @@
         <v>2346762980.504397</v>
       </c>
       <c r="G28" t="n">
-        <v>3811919756.078735</v>
+        <v>3811812335.710507</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>8210907459.267469</v>
+        <v>8137466770.842316</v>
       </c>
     </row>
   </sheetData>
